--- a/data/coal/煤炭中观数据库.xlsx
+++ b/data/coal/煤炭中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,139 +76,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生铁产量增速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦炭出口量增速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成氨产量增速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚BJ煤炭现货价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布伦特原油现货价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆士兰-日本海运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5111905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火电生产量当月同比增速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0027019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0069694</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5103913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦皇岛港煤炭调入量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦皇岛港煤炭调出量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5104482</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5131875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力煤进口数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力煤出口数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5103365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5103551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼焦煤进口数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼焦煤出口数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5103573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5103411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0146188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5133498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内炼焦煤价格--山西古交#2焦煤车板含税价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0146210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0048337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六大电厂日均耗煤量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5116614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水泥产量增速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生铁产量增速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦炭出口量增速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成氨产量增速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳大利亚BJ煤炭现货价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布伦特原油现货价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆士兰-日本海运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5111905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027373</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火电生产量当月同比增速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0027019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0069694</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5103913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦皇岛港煤炭调入量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦皇岛港煤炭调出量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5104482</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5131875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力煤进口数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力煤出口数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5103365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5103551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼焦煤进口数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼焦煤出口数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5103573</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5103411</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0146188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5133498</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内炼焦煤价格--山西古交#2焦煤车板含税价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0146210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0048337</t>
+    <t>六大电厂煤炭库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5116621</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -601,10 +621,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -612,10 +632,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -623,10 +643,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -634,10 +654,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -648,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -659,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -667,10 +687,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -689,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -708,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -716,10 +736,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -727,7 +747,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -738,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -754,10 +774,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -765,10 +785,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -776,10 +796,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -787,10 +807,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -798,10 +818,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -809,7 +829,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -817,21 +837,43 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/coal/煤炭中观数据库.xlsx
+++ b/data/coal/煤炭中观数据库.xlsx
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S0048337</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>六大电厂日均耗煤量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>S5116621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5109263</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -856,24 +856,24 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
